--- a/results/2012_reps_by_state.xlsx
+++ b/results/2012_reps_by_state.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/MM2/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{66E56924-1D2C-AF4D-BC0D-A4BD497CB906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{097FDDEA-AEF4-8448-AD4C-FE97352124A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="500" windowWidth="27300" windowHeight="16940" xr2:uid="{31F89433-31AC-794B-90FC-3546F5323499}"/>
+    <workbookView xWindow="1520" yWindow="1000" windowWidth="26900" windowHeight="16440" xr2:uid="{DCE3A90A-329F-9E4D-AE54-E25056C1F76C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{F436E778-17FD-CA4D-986F-457817C234C1}" name="2012_reps_by_state" type="6" refreshedVersion="8" background="1" saveData="1">
+  <connection id="1" xr16:uid="{30055E25-6CB7-CE40-8CF6-460D3BF92D40}" name="2012_reps_by_state" type="6" refreshedVersion="8" background="1" saveData="1">
     <textPr codePage="10000" sourceFile="/Users/alecramsay/Documents/dev/MM2/results/2012_reps_by_state.csv" comma="1">
       <textFields count="4">
         <textField type="text"/>
@@ -285,7 +285,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="2012_reps_by_state" connectionId="1" xr16:uid="{A89A5703-04BC-4247-944F-5AA9A41CA9C8}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="2012_reps_by_state" connectionId="1" xr16:uid="{89EB83F6-2879-CA45-8282-BD885EFA3F3D}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -584,14 +584,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D3271D1-0757-444B-8124-77841242E8A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED891A3A-6602-7642-B5B1-B8EE4F5D02E2}">
   <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2:E51"/>
+      <selection pane="bottomRight" activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -700,14 +700,14 @@
         <v>53</v>
       </c>
       <c r="C6">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -1279,11 +1279,11 @@
         <v>2</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
